--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Agrn-Dag1.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Agrn-Dag1.xlsx
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>11.4076210329856</v>
+        <v>17.05375133333333</v>
       </c>
       <c r="H2">
-        <v>11.4076210329856</v>
+        <v>51.161254</v>
       </c>
       <c r="I2">
-        <v>0.2825226168346384</v>
+        <v>0.3501286198398134</v>
       </c>
       <c r="J2">
-        <v>0.2825226168346384</v>
+        <v>0.3501286198398134</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>9.23421792776205</v>
+        <v>11.27642966666667</v>
       </c>
       <c r="N2">
-        <v>9.23421792776205</v>
+        <v>33.829289</v>
       </c>
       <c r="O2">
-        <v>0.05004738136447116</v>
+        <v>0.04495771493187356</v>
       </c>
       <c r="P2">
-        <v>0.05004738136447116</v>
+        <v>0.04495771493187355</v>
       </c>
       <c r="Q2">
-        <v>105.3404586559111</v>
+        <v>192.3054274631562</v>
       </c>
       <c r="R2">
-        <v>105.3404586559111</v>
+        <v>1730.748847168406</v>
       </c>
       <c r="S2">
-        <v>0.01413951714881151</v>
+        <v>0.01574098268024866</v>
       </c>
       <c r="T2">
-        <v>0.01413951714881151</v>
+        <v>0.01574098268024866</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>11.4076210329856</v>
+        <v>17.05375133333333</v>
       </c>
       <c r="H3">
-        <v>11.4076210329856</v>
+        <v>51.161254</v>
       </c>
       <c r="I3">
-        <v>0.2825226168346384</v>
+        <v>0.3501286198398134</v>
       </c>
       <c r="J3">
-        <v>0.2825226168346384</v>
+        <v>0.3501286198398134</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>28.4054767037283</v>
+        <v>28.51725866666667</v>
       </c>
       <c r="N3">
-        <v>28.4054767037283</v>
+        <v>85.551776</v>
       </c>
       <c r="O3">
-        <v>0.1539512860268424</v>
+        <v>0.1136947441408982</v>
       </c>
       <c r="P3">
-        <v>0.1539512860268424</v>
+        <v>0.1136947441408982</v>
       </c>
       <c r="Q3">
-        <v>324.0389134974334</v>
+        <v>486.3262380096783</v>
       </c>
       <c r="R3">
-        <v>324.0389134974334</v>
+        <v>4376.936142087105</v>
       </c>
       <c r="S3">
-        <v>0.04349472019336143</v>
+        <v>0.0398077838490934</v>
       </c>
       <c r="T3">
-        <v>0.04349472019336143</v>
+        <v>0.03980778384909341</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,52 +661,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>11.4076210329856</v>
+        <v>17.05375133333333</v>
       </c>
       <c r="H4">
-        <v>11.4076210329856</v>
+        <v>51.161254</v>
       </c>
       <c r="I4">
-        <v>0.2825226168346384</v>
+        <v>0.3501286198398134</v>
       </c>
       <c r="J4">
-        <v>0.2825226168346384</v>
+        <v>0.3501286198398134</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>5.0140548210841</v>
+        <v>5.329513</v>
       </c>
       <c r="N4">
-        <v>5.0140548210841</v>
+        <v>15.988539</v>
       </c>
       <c r="O4">
-        <v>0.02717504782497348</v>
+        <v>0.02124810186046602</v>
       </c>
       <c r="P4">
-        <v>0.02717504782497348</v>
+        <v>0.02124810186046602</v>
       </c>
       <c r="Q4">
-        <v>57.19843723754183</v>
+        <v>90.88818942976734</v>
       </c>
       <c r="R4">
-        <v>57.19843723754183</v>
+        <v>817.993704867906</v>
       </c>
       <c r="S4">
-        <v>0.007677565624117956</v>
+        <v>0.00743956857862074</v>
       </c>
       <c r="T4">
-        <v>0.007677565624117956</v>
+        <v>0.00743956857862074</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,52 +723,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>11.4076210329856</v>
+        <v>17.05375133333333</v>
       </c>
       <c r="H5">
-        <v>11.4076210329856</v>
+        <v>51.161254</v>
       </c>
       <c r="I5">
-        <v>0.2825226168346384</v>
+        <v>0.3501286198398134</v>
       </c>
       <c r="J5">
-        <v>0.2825226168346384</v>
+        <v>0.3501286198398134</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>5.46980526279698</v>
+        <v>5.710511999999999</v>
       </c>
       <c r="N5">
-        <v>5.46980526279698</v>
+        <v>17.131536</v>
       </c>
       <c r="O5">
-        <v>0.02964511257131833</v>
+        <v>0.02276709722847351</v>
       </c>
       <c r="P5">
-        <v>0.02964511257131833</v>
+        <v>0.02276709722847351</v>
       </c>
       <c r="Q5">
-        <v>62.39746556221816</v>
+        <v>97.38565163401599</v>
       </c>
       <c r="R5">
-        <v>62.39746556221816</v>
+        <v>876.4708647061439</v>
       </c>
       <c r="S5">
-        <v>0.008375414780006292</v>
+        <v>0.00797141233036427</v>
       </c>
       <c r="T5">
-        <v>0.008375414780006292</v>
+        <v>0.00797141233036427</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,52 +785,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>11.4076210329856</v>
+        <v>17.05375133333333</v>
       </c>
       <c r="H6">
-        <v>11.4076210329856</v>
+        <v>51.161254</v>
       </c>
       <c r="I6">
-        <v>0.2825226168346384</v>
+        <v>0.3501286198398134</v>
       </c>
       <c r="J6">
-        <v>0.2825226168346384</v>
+        <v>0.3501286198398134</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>3.32614568004099</v>
+        <v>3.355851333333334</v>
       </c>
       <c r="N6">
-        <v>3.32614568004099</v>
+        <v>10.067554</v>
       </c>
       <c r="O6">
-        <v>0.01802696044484009</v>
+        <v>0.01337935960738765</v>
       </c>
       <c r="P6">
-        <v>0.01802696044484009</v>
+        <v>0.01337935960738765</v>
       </c>
       <c r="Q6">
-        <v>37.94340941840979</v>
+        <v>57.22985415030179</v>
       </c>
       <c r="R6">
-        <v>37.94340941840979</v>
+        <v>515.0686873527161</v>
       </c>
       <c r="S6">
-        <v>0.005093024038450741</v>
+        <v>0.004684496713675186</v>
       </c>
       <c r="T6">
-        <v>0.005093024038450741</v>
+        <v>0.004684496713675186</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,52 +847,52 @@
         <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>11.4076210329856</v>
+        <v>17.05375133333333</v>
       </c>
       <c r="H7">
-        <v>11.4076210329856</v>
+        <v>51.161254</v>
       </c>
       <c r="I7">
-        <v>0.2825226168346384</v>
+        <v>0.3501286198398134</v>
       </c>
       <c r="J7">
-        <v>0.2825226168346384</v>
+        <v>0.3501286198398134</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>133.059811910809</v>
+        <v>196.6334516666667</v>
       </c>
       <c r="N7">
-        <v>133.059811910809</v>
+        <v>589.900355</v>
       </c>
       <c r="O7">
-        <v>0.7211542117675545</v>
+        <v>0.783952982230901</v>
       </c>
       <c r="P7">
-        <v>0.7211542117675545</v>
+        <v>0.7839529822309009</v>
       </c>
       <c r="Q7">
-        <v>1517.895908998853</v>
+        <v>3353.337988538352</v>
       </c>
       <c r="R7">
-        <v>1517.895908998853</v>
+        <v>30180.04189684517</v>
       </c>
       <c r="S7">
-        <v>0.2037423750498905</v>
+        <v>0.2744843756878111</v>
       </c>
       <c r="T7">
-        <v>0.2037423750498905</v>
+        <v>0.2744843756878111</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,52 +909,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>2.96738362552852</v>
+        <v>3.037017666666667</v>
       </c>
       <c r="H8">
-        <v>2.96738362552852</v>
+        <v>9.111053</v>
       </c>
       <c r="I8">
-        <v>0.07349060637730184</v>
+        <v>0.06235266266494154</v>
       </c>
       <c r="J8">
-        <v>0.07349060637730184</v>
+        <v>0.06235266266494155</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>9.23421792776205</v>
+        <v>11.27642966666667</v>
       </c>
       <c r="N8">
-        <v>9.23421792776205</v>
+        <v>33.829289</v>
       </c>
       <c r="O8">
-        <v>0.05004738136447116</v>
+        <v>0.04495771493187356</v>
       </c>
       <c r="P8">
-        <v>0.05004738136447116</v>
+        <v>0.04495771493187355</v>
       </c>
       <c r="Q8">
-        <v>27.40146707340301</v>
+        <v>34.24671611459078</v>
       </c>
       <c r="R8">
-        <v>27.40146707340301</v>
+        <v>308.220445031317</v>
       </c>
       <c r="S8">
-        <v>0.003678012404071062</v>
+        <v>0.002803233233333717</v>
       </c>
       <c r="T8">
-        <v>0.003678012404071062</v>
+        <v>0.002803233233333717</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,52 +971,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>2.96738362552852</v>
+        <v>3.037017666666667</v>
       </c>
       <c r="H9">
-        <v>2.96738362552852</v>
+        <v>9.111053</v>
       </c>
       <c r="I9">
-        <v>0.07349060637730184</v>
+        <v>0.06235266266494154</v>
       </c>
       <c r="J9">
-        <v>0.07349060637730184</v>
+        <v>0.06235266266494155</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>28.4054767037283</v>
+        <v>28.51725866666667</v>
       </c>
       <c r="N9">
-        <v>28.4054767037283</v>
+        <v>85.551776</v>
       </c>
       <c r="O9">
-        <v>0.1539512860268424</v>
+        <v>0.1136947441408982</v>
       </c>
       <c r="P9">
-        <v>0.1539512860268424</v>
+        <v>0.1136947441408982</v>
       </c>
       <c r="Q9">
-        <v>84.2899464459752</v>
+        <v>86.60741837556978</v>
       </c>
       <c r="R9">
-        <v>84.2899464459752</v>
+        <v>779.4667653801281</v>
       </c>
       <c r="S9">
-        <v>0.01131397336267809</v>
+        <v>0.007089170028194264</v>
       </c>
       <c r="T9">
-        <v>0.01131397336267809</v>
+        <v>0.007089170028194266</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,52 +1033,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>2.96738362552852</v>
+        <v>3.037017666666667</v>
       </c>
       <c r="H10">
-        <v>2.96738362552852</v>
+        <v>9.111053</v>
       </c>
       <c r="I10">
-        <v>0.07349060637730184</v>
+        <v>0.06235266266494154</v>
       </c>
       <c r="J10">
-        <v>0.07349060637730184</v>
+        <v>0.06235266266494155</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>5.0140548210841</v>
+        <v>5.329513</v>
       </c>
       <c r="N10">
-        <v>5.0140548210841</v>
+        <v>15.988539</v>
       </c>
       <c r="O10">
-        <v>0.02717504782497348</v>
+        <v>0.02124810186046602</v>
       </c>
       <c r="P10">
-        <v>0.02717504782497348</v>
+        <v>0.02124810186046602</v>
       </c>
       <c r="Q10">
-        <v>14.87862417358729</v>
+        <v>16.18582513572967</v>
       </c>
       <c r="R10">
-        <v>14.87862417358729</v>
+        <v>145.672426221567</v>
       </c>
       <c r="S10">
-        <v>0.001997110742989478</v>
+        <v>0.001324875727575955</v>
       </c>
       <c r="T10">
-        <v>0.001997110742989478</v>
+        <v>0.001324875727575955</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,52 +1095,52 @@
         <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>2.96738362552852</v>
+        <v>3.037017666666667</v>
       </c>
       <c r="H11">
-        <v>2.96738362552852</v>
+        <v>9.111053</v>
       </c>
       <c r="I11">
-        <v>0.07349060637730184</v>
+        <v>0.06235266266494154</v>
       </c>
       <c r="J11">
-        <v>0.07349060637730184</v>
+        <v>0.06235266266494155</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>5.46980526279698</v>
+        <v>5.710511999999999</v>
       </c>
       <c r="N11">
-        <v>5.46980526279698</v>
+        <v>17.131536</v>
       </c>
       <c r="O11">
-        <v>0.02964511257131833</v>
+        <v>0.02276709722847351</v>
       </c>
       <c r="P11">
-        <v>0.02964511257131833</v>
+        <v>0.02276709722847351</v>
       </c>
       <c r="Q11">
-        <v>16.23101057165348</v>
+        <v>17.342925829712</v>
       </c>
       <c r="R11">
-        <v>16.23101057165348</v>
+        <v>156.086332467408</v>
       </c>
       <c r="S11">
-        <v>0.002178637298989558</v>
+        <v>0.001419589133346934</v>
       </c>
       <c r="T11">
-        <v>0.002178637298989558</v>
+        <v>0.001419589133346934</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,52 +1157,52 @@
         <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>2.96738362552852</v>
+        <v>3.037017666666667</v>
       </c>
       <c r="H12">
-        <v>2.96738362552852</v>
+        <v>9.111053</v>
       </c>
       <c r="I12">
-        <v>0.07349060637730184</v>
+        <v>0.06235266266494154</v>
       </c>
       <c r="J12">
-        <v>0.07349060637730184</v>
+        <v>0.06235266266494155</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>3.32614568004099</v>
+        <v>3.355851333333334</v>
       </c>
       <c r="N12">
-        <v>3.32614568004099</v>
+        <v>10.067554</v>
       </c>
       <c r="O12">
-        <v>0.01802696044484009</v>
+        <v>0.01337935960738765</v>
       </c>
       <c r="P12">
-        <v>0.01802696044484009</v>
+        <v>0.01337935960738765</v>
       </c>
       <c r="Q12">
-        <v>9.869950227076059</v>
+        <v>10.19177978604022</v>
       </c>
       <c r="R12">
-        <v>9.869950227076059</v>
+        <v>91.72601807436202</v>
       </c>
       <c r="S12">
-        <v>0.001324812254230933</v>
+        <v>0.000834238696272387</v>
       </c>
       <c r="T12">
-        <v>0.001324812254230933</v>
+        <v>0.0008342386962723871</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,52 +1219,52 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>2.96738362552852</v>
+        <v>3.037017666666667</v>
       </c>
       <c r="H13">
-        <v>2.96738362552852</v>
+        <v>9.111053</v>
       </c>
       <c r="I13">
-        <v>0.07349060637730184</v>
+        <v>0.06235266266494154</v>
       </c>
       <c r="J13">
-        <v>0.07349060637730184</v>
+        <v>0.06235266266494155</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>133.059811910809</v>
+        <v>196.6334516666667</v>
       </c>
       <c r="N13">
-        <v>133.059811910809</v>
+        <v>589.900355</v>
       </c>
       <c r="O13">
-        <v>0.7211542117675545</v>
+        <v>0.783952982230901</v>
       </c>
       <c r="P13">
-        <v>0.7211542117675545</v>
+        <v>0.7839529822309009</v>
       </c>
       <c r="Q13">
-        <v>394.8395070800394</v>
+        <v>597.1792665693129</v>
       </c>
       <c r="R13">
-        <v>394.8395070800394</v>
+        <v>5374.613399123815</v>
       </c>
       <c r="S13">
-        <v>0.05299806031434272</v>
+        <v>0.04888155584621828</v>
       </c>
       <c r="T13">
-        <v>0.05299806031434272</v>
+        <v>0.04888155584621828</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,52 +1281,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>4.65010348268525</v>
+        <v>4.955296333333334</v>
       </c>
       <c r="H14">
-        <v>4.65010348268525</v>
+        <v>14.865889</v>
       </c>
       <c r="I14">
-        <v>0.1151650638359491</v>
+        <v>0.101736622762645</v>
       </c>
       <c r="J14">
-        <v>0.1151650638359491</v>
+        <v>0.101736622762645</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>9.23421792776205</v>
+        <v>11.27642966666667</v>
       </c>
       <c r="N14">
-        <v>9.23421792776205</v>
+        <v>33.829289</v>
       </c>
       <c r="O14">
-        <v>0.05004738136447116</v>
+        <v>0.04495771493187356</v>
       </c>
       <c r="P14">
-        <v>0.05004738136447116</v>
+        <v>0.04495771493187355</v>
       </c>
       <c r="Q14">
-        <v>42.94006894576088</v>
+        <v>55.87805058032455</v>
       </c>
       <c r="R14">
-        <v>42.94006894576088</v>
+        <v>502.902455222921</v>
       </c>
       <c r="S14">
-        <v>0.005763709869661411</v>
+        <v>0.004573846084294553</v>
       </c>
       <c r="T14">
-        <v>0.005763709869661411</v>
+        <v>0.004573846084294553</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,52 +1343,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>4.65010348268525</v>
+        <v>4.955296333333334</v>
       </c>
       <c r="H15">
-        <v>4.65010348268525</v>
+        <v>14.865889</v>
       </c>
       <c r="I15">
-        <v>0.1151650638359491</v>
+        <v>0.101736622762645</v>
       </c>
       <c r="J15">
-        <v>0.1151650638359491</v>
+        <v>0.101736622762645</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>28.4054767037283</v>
+        <v>28.51725866666667</v>
       </c>
       <c r="N15">
-        <v>28.4054767037283</v>
+        <v>85.551776</v>
       </c>
       <c r="O15">
-        <v>0.1539512860268424</v>
+        <v>0.1136947441408982</v>
       </c>
       <c r="P15">
-        <v>0.1539512860268424</v>
+        <v>0.1136947441408982</v>
       </c>
       <c r="Q15">
-        <v>132.0884061473417</v>
+        <v>141.3114673076516</v>
       </c>
       <c r="R15">
-        <v>132.0884061473417</v>
+        <v>1271.803205768864</v>
       </c>
       <c r="S15">
-        <v>0.01772980968290777</v>
+        <v>0.01156691929475801</v>
       </c>
       <c r="T15">
-        <v>0.01772980968290777</v>
+        <v>0.01156691929475801</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,52 +1405,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>4.65010348268525</v>
+        <v>4.955296333333334</v>
       </c>
       <c r="H16">
-        <v>4.65010348268525</v>
+        <v>14.865889</v>
       </c>
       <c r="I16">
-        <v>0.1151650638359491</v>
+        <v>0.101736622762645</v>
       </c>
       <c r="J16">
-        <v>0.1151650638359491</v>
+        <v>0.101736622762645</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>5.0140548210841</v>
+        <v>5.329513</v>
       </c>
       <c r="N16">
-        <v>5.0140548210841</v>
+        <v>15.988539</v>
       </c>
       <c r="O16">
-        <v>0.02717504782497348</v>
+        <v>0.02124810186046602</v>
       </c>
       <c r="P16">
-        <v>0.02717504782497348</v>
+        <v>0.02124810186046602</v>
       </c>
       <c r="Q16">
-        <v>23.31587378589794</v>
+        <v>26.40931622735233</v>
       </c>
       <c r="R16">
-        <v>23.31587378589794</v>
+        <v>237.683846046171</v>
       </c>
       <c r="S16">
-        <v>0.003129616117508041</v>
+        <v>0.002161710123400488</v>
       </c>
       <c r="T16">
-        <v>0.003129616117508041</v>
+        <v>0.002161710123400488</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,52 +1467,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>4.65010348268525</v>
+        <v>4.955296333333334</v>
       </c>
       <c r="H17">
-        <v>4.65010348268525</v>
+        <v>14.865889</v>
       </c>
       <c r="I17">
-        <v>0.1151650638359491</v>
+        <v>0.101736622762645</v>
       </c>
       <c r="J17">
-        <v>0.1151650638359491</v>
+        <v>0.101736622762645</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>5.46980526279698</v>
+        <v>5.710511999999999</v>
       </c>
       <c r="N17">
-        <v>5.46980526279698</v>
+        <v>17.131536</v>
       </c>
       <c r="O17">
-        <v>0.02964511257131833</v>
+        <v>0.02276709722847351</v>
       </c>
       <c r="P17">
-        <v>0.02964511257131833</v>
+        <v>0.02276709722847351</v>
       </c>
       <c r="Q17">
-        <v>25.43516050214234</v>
+        <v>28.297279175056</v>
       </c>
       <c r="R17">
-        <v>25.43516050214234</v>
+        <v>254.675512575504</v>
       </c>
       <c r="S17">
-        <v>0.003414081281699773</v>
+        <v>0.00231624758213367</v>
       </c>
       <c r="T17">
-        <v>0.003414081281699773</v>
+        <v>0.00231624758213367</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,52 +1529,52 @@
         <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>4.65010348268525</v>
+        <v>4.955296333333334</v>
       </c>
       <c r="H18">
-        <v>4.65010348268525</v>
+        <v>14.865889</v>
       </c>
       <c r="I18">
-        <v>0.1151650638359491</v>
+        <v>0.101736622762645</v>
       </c>
       <c r="J18">
-        <v>0.1151650638359491</v>
+        <v>0.101736622762645</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>3.32614568004099</v>
+        <v>3.355851333333334</v>
       </c>
       <c r="N18">
-        <v>3.32614568004099</v>
+        <v>10.067554</v>
       </c>
       <c r="O18">
-        <v>0.01802696044484009</v>
+        <v>0.01337935960738765</v>
       </c>
       <c r="P18">
-        <v>0.01802696044484009</v>
+        <v>0.01337935960738765</v>
       </c>
       <c r="Q18">
-        <v>15.46692161067711</v>
+        <v>16.62923780727845</v>
       </c>
       <c r="R18">
-        <v>15.46692161067711</v>
+        <v>149.663140265506</v>
       </c>
       <c r="S18">
-        <v>0.002076076050398139</v>
+        <v>0.001361170861182568</v>
       </c>
       <c r="T18">
-        <v>0.002076076050398139</v>
+        <v>0.001361170861182568</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,52 +1591,52 @@
         <v>25</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>4.65010348268525</v>
+        <v>4.955296333333334</v>
       </c>
       <c r="H19">
-        <v>4.65010348268525</v>
+        <v>14.865889</v>
       </c>
       <c r="I19">
-        <v>0.1151650638359491</v>
+        <v>0.101736622762645</v>
       </c>
       <c r="J19">
-        <v>0.1151650638359491</v>
+        <v>0.101736622762645</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>133.059811910809</v>
+        <v>196.6334516666667</v>
       </c>
       <c r="N19">
-        <v>133.059811910809</v>
+        <v>589.900355</v>
       </c>
       <c r="O19">
-        <v>0.7211542117675545</v>
+        <v>0.783952982230901</v>
       </c>
       <c r="P19">
-        <v>0.7211542117675545</v>
+        <v>0.7839529822309009</v>
       </c>
       <c r="Q19">
-        <v>618.7418947718973</v>
+        <v>974.3770220545107</v>
       </c>
       <c r="R19">
-        <v>618.7418947718973</v>
+        <v>8769.393198490596</v>
       </c>
       <c r="S19">
-        <v>0.08305177083377396</v>
+        <v>0.07975672881687573</v>
       </c>
       <c r="T19">
-        <v>0.08305177083377396</v>
+        <v>0.07975672881687573</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1653,52 +1653,52 @@
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>5.39179948365893</v>
+        <v>5.897008666666667</v>
       </c>
       <c r="H20">
-        <v>5.39179948365893</v>
+        <v>17.691026</v>
       </c>
       <c r="I20">
-        <v>0.133534002853555</v>
+        <v>0.1210708110659339</v>
       </c>
       <c r="J20">
-        <v>0.133534002853555</v>
+        <v>0.1210708110659339</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>9.23421792776205</v>
+        <v>11.27642966666667</v>
       </c>
       <c r="N20">
-        <v>9.23421792776205</v>
+        <v>33.829289</v>
       </c>
       <c r="O20">
-        <v>0.05004738136447116</v>
+        <v>0.04495771493187356</v>
       </c>
       <c r="P20">
-        <v>0.05004738136447116</v>
+        <v>0.04495771493187355</v>
       </c>
       <c r="Q20">
-        <v>49.78905145490145</v>
+        <v>66.49720347339044</v>
       </c>
       <c r="R20">
-        <v>49.78905145490145</v>
+        <v>598.474831260514</v>
       </c>
       <c r="S20">
-        <v>0.006683027165936246</v>
+        <v>0.005443067010472979</v>
       </c>
       <c r="T20">
-        <v>0.006683027165936246</v>
+        <v>0.005443067010472979</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1715,52 +1715,52 @@
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>5.39179948365893</v>
+        <v>5.897008666666667</v>
       </c>
       <c r="H21">
-        <v>5.39179948365893</v>
+        <v>17.691026</v>
       </c>
       <c r="I21">
-        <v>0.133534002853555</v>
+        <v>0.1210708110659339</v>
       </c>
       <c r="J21">
-        <v>0.133534002853555</v>
+        <v>0.1210708110659339</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>28.4054767037283</v>
+        <v>28.51725866666667</v>
       </c>
       <c r="N21">
-        <v>28.4054767037283</v>
+        <v>85.551776</v>
       </c>
       <c r="O21">
-        <v>0.1539512860268424</v>
+        <v>0.1136947441408982</v>
       </c>
       <c r="P21">
-        <v>0.1539512860268424</v>
+        <v>0.1136947441408982</v>
       </c>
       <c r="Q21">
-        <v>153.156634624248</v>
+        <v>168.1665215069085</v>
       </c>
       <c r="R21">
-        <v>153.156634624248</v>
+        <v>1513.498693562176</v>
       </c>
       <c r="S21">
-        <v>0.02055773146761683</v>
+        <v>0.01376511488707238</v>
       </c>
       <c r="T21">
-        <v>0.02055773146761683</v>
+        <v>0.01376511488707238</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1777,52 +1777,52 @@
         <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>5.39179948365893</v>
+        <v>5.897008666666667</v>
       </c>
       <c r="H22">
-        <v>5.39179948365893</v>
+        <v>17.691026</v>
       </c>
       <c r="I22">
-        <v>0.133534002853555</v>
+        <v>0.1210708110659339</v>
       </c>
       <c r="J22">
-        <v>0.133534002853555</v>
+        <v>0.1210708110659339</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>5.0140548210841</v>
+        <v>5.329513</v>
       </c>
       <c r="N22">
-        <v>5.0140548210841</v>
+        <v>15.988539</v>
       </c>
       <c r="O22">
-        <v>0.02717504782497348</v>
+        <v>0.02124810186046602</v>
       </c>
       <c r="P22">
-        <v>0.02717504782497348</v>
+        <v>0.02124810186046602</v>
       </c>
       <c r="Q22">
-        <v>27.03477819535882</v>
+        <v>31.42818435011267</v>
       </c>
       <c r="R22">
-        <v>27.03477819535882</v>
+        <v>282.853659151014</v>
       </c>
       <c r="S22">
-        <v>0.003628792913805501</v>
+        <v>0.0025725249258582</v>
       </c>
       <c r="T22">
-        <v>0.003628792913805501</v>
+        <v>0.002572524925858201</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1839,52 +1839,52 @@
         <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>5.39179948365893</v>
+        <v>5.897008666666667</v>
       </c>
       <c r="H23">
-        <v>5.39179948365893</v>
+        <v>17.691026</v>
       </c>
       <c r="I23">
-        <v>0.133534002853555</v>
+        <v>0.1210708110659339</v>
       </c>
       <c r="J23">
-        <v>0.133534002853555</v>
+        <v>0.1210708110659339</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>5.46980526279698</v>
+        <v>5.710511999999999</v>
       </c>
       <c r="N23">
-        <v>5.46980526279698</v>
+        <v>17.131536</v>
       </c>
       <c r="O23">
-        <v>0.02964511257131833</v>
+        <v>0.02276709722847351</v>
       </c>
       <c r="P23">
-        <v>0.02964511257131833</v>
+        <v>0.02276709722847351</v>
       </c>
       <c r="Q23">
-        <v>29.49209319166365</v>
+        <v>33.67493875510399</v>
       </c>
       <c r="R23">
-        <v>29.49209319166365</v>
+        <v>303.074448795936</v>
       </c>
       <c r="S23">
-        <v>0.003958630546692381</v>
+        <v>0.002756430927068263</v>
       </c>
       <c r="T23">
-        <v>0.003958630546692381</v>
+        <v>0.002756430927068263</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1901,52 +1901,52 @@
         <v>24</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>5.39179948365893</v>
+        <v>5.897008666666667</v>
       </c>
       <c r="H24">
-        <v>5.39179948365893</v>
+        <v>17.691026</v>
       </c>
       <c r="I24">
-        <v>0.133534002853555</v>
+        <v>0.1210708110659339</v>
       </c>
       <c r="J24">
-        <v>0.133534002853555</v>
+        <v>0.1210708110659339</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>3.32614568004099</v>
+        <v>3.355851333333334</v>
       </c>
       <c r="N24">
-        <v>3.32614568004099</v>
+        <v>10.067554</v>
       </c>
       <c r="O24">
-        <v>0.01802696044484009</v>
+        <v>0.01337935960738765</v>
       </c>
       <c r="P24">
-        <v>0.01802696044484009</v>
+        <v>0.01337935960738765</v>
       </c>
       <c r="Q24">
-        <v>17.93391056021939</v>
+        <v>19.78948439671156</v>
       </c>
       <c r="R24">
-        <v>17.93391056021939</v>
+        <v>178.105359570404</v>
       </c>
       <c r="S24">
-        <v>0.0024072121874822</v>
+        <v>0.001619849919209218</v>
       </c>
       <c r="T24">
-        <v>0.0024072121874822</v>
+        <v>0.001619849919209218</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1963,52 +1963,52 @@
         <v>25</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>5.39179948365893</v>
+        <v>5.897008666666667</v>
       </c>
       <c r="H25">
-        <v>5.39179948365893</v>
+        <v>17.691026</v>
       </c>
       <c r="I25">
-        <v>0.133534002853555</v>
+        <v>0.1210708110659339</v>
       </c>
       <c r="J25">
-        <v>0.133534002853555</v>
+        <v>0.1210708110659339</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>133.059811910809</v>
+        <v>196.6334516666667</v>
       </c>
       <c r="N25">
-        <v>133.059811910809</v>
+        <v>589.900355</v>
       </c>
       <c r="O25">
-        <v>0.7211542117675545</v>
+        <v>0.783952982230901</v>
       </c>
       <c r="P25">
-        <v>0.7211542117675545</v>
+        <v>0.7839529822309009</v>
       </c>
       <c r="Q25">
-        <v>717.4318251564542</v>
+        <v>1159.549168634915</v>
       </c>
       <c r="R25">
-        <v>717.4318251564542</v>
+        <v>10435.94251771423</v>
       </c>
       <c r="S25">
-        <v>0.0962986085720218</v>
+        <v>0.09491382339625284</v>
       </c>
       <c r="T25">
-        <v>0.0962986085720218</v>
+        <v>0.09491382339625284</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2025,52 +2025,52 @@
         <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>5.12159796544446</v>
+        <v>5.159083666666667</v>
       </c>
       <c r="H26">
-        <v>5.12159796544446</v>
+        <v>15.477251</v>
       </c>
       <c r="I26">
-        <v>0.126842157132356</v>
+        <v>0.1059205572159035</v>
       </c>
       <c r="J26">
-        <v>0.126842157132356</v>
+        <v>0.1059205572159035</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>9.23421792776205</v>
+        <v>11.27642966666667</v>
       </c>
       <c r="N26">
-        <v>9.23421792776205</v>
+        <v>33.829289</v>
       </c>
       <c r="O26">
-        <v>0.05004738136447116</v>
+        <v>0.04495771493187356</v>
       </c>
       <c r="P26">
-        <v>0.05004738136447116</v>
+        <v>0.04495771493187355</v>
       </c>
       <c r="Q26">
-        <v>47.29395175129687</v>
+        <v>58.17604411161544</v>
       </c>
       <c r="R26">
-        <v>47.29395175129687</v>
+        <v>523.5843970045389</v>
       </c>
       <c r="S26">
-        <v>0.006348117811095197</v>
+        <v>0.004761946216737791</v>
       </c>
       <c r="T26">
-        <v>0.006348117811095197</v>
+        <v>0.004761946216737792</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2087,52 +2087,52 @@
         <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27">
-        <v>5.12159796544446</v>
+        <v>5.159083666666667</v>
       </c>
       <c r="H27">
-        <v>5.12159796544446</v>
+        <v>15.477251</v>
       </c>
       <c r="I27">
-        <v>0.126842157132356</v>
+        <v>0.1059205572159035</v>
       </c>
       <c r="J27">
-        <v>0.126842157132356</v>
+        <v>0.1059205572159035</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L27">
         <v>1</v>
       </c>
       <c r="M27">
-        <v>28.4054767037283</v>
+        <v>28.51725866666667</v>
       </c>
       <c r="N27">
-        <v>28.4054767037283</v>
+        <v>85.551776</v>
       </c>
       <c r="O27">
-        <v>0.1539512860268424</v>
+        <v>0.1136947441408982</v>
       </c>
       <c r="P27">
-        <v>0.1539512860268424</v>
+        <v>0.1136947441408982</v>
       </c>
       <c r="Q27">
-        <v>145.4814316932949</v>
+        <v>147.1229234053085</v>
       </c>
       <c r="R27">
-        <v>145.4814316932949</v>
+        <v>1324.106310647776</v>
       </c>
       <c r="S27">
-        <v>0.01952751321294503</v>
+        <v>0.01204261065192352</v>
       </c>
       <c r="T27">
-        <v>0.01952751321294503</v>
+        <v>0.01204261065192352</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2149,52 +2149,52 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28">
-        <v>5.12159796544446</v>
+        <v>5.159083666666667</v>
       </c>
       <c r="H28">
-        <v>5.12159796544446</v>
+        <v>15.477251</v>
       </c>
       <c r="I28">
-        <v>0.126842157132356</v>
+        <v>0.1059205572159035</v>
       </c>
       <c r="J28">
-        <v>0.126842157132356</v>
+        <v>0.1059205572159035</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28">
         <v>1</v>
       </c>
       <c r="M28">
-        <v>5.0140548210841</v>
+        <v>5.329513</v>
       </c>
       <c r="N28">
-        <v>5.0140548210841</v>
+        <v>15.988539</v>
       </c>
       <c r="O28">
-        <v>0.02717504782497348</v>
+        <v>0.02124810186046602</v>
       </c>
       <c r="P28">
-        <v>0.02717504782497348</v>
+        <v>0.02124810186046602</v>
       </c>
       <c r="Q28">
-        <v>25.67997297029131</v>
+        <v>27.49540346958766</v>
       </c>
       <c r="R28">
-        <v>25.67997297029131</v>
+        <v>247.458631226289</v>
       </c>
       <c r="S28">
-        <v>0.003446941686294575</v>
+        <v>0.002250610788840837</v>
       </c>
       <c r="T28">
-        <v>0.003446941686294575</v>
+        <v>0.002250610788840837</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2211,52 +2211,52 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29">
-        <v>5.12159796544446</v>
+        <v>5.159083666666667</v>
       </c>
       <c r="H29">
-        <v>5.12159796544446</v>
+        <v>15.477251</v>
       </c>
       <c r="I29">
-        <v>0.126842157132356</v>
+        <v>0.1059205572159035</v>
       </c>
       <c r="J29">
-        <v>0.126842157132356</v>
+        <v>0.1059205572159035</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L29">
         <v>1</v>
       </c>
       <c r="M29">
-        <v>5.46980526279698</v>
+        <v>5.710511999999999</v>
       </c>
       <c r="N29">
-        <v>5.46980526279698</v>
+        <v>17.131536</v>
       </c>
       <c r="O29">
-        <v>0.02964511257131833</v>
+        <v>0.02276709722847351</v>
       </c>
       <c r="P29">
-        <v>0.02964511257131833</v>
+        <v>0.02276709722847351</v>
       </c>
       <c r="Q29">
-        <v>28.01414350531841</v>
+        <v>29.46100918750399</v>
       </c>
       <c r="R29">
-        <v>28.01414350531841</v>
+        <v>265.149082687536</v>
       </c>
       <c r="S29">
-        <v>0.003760250026977542</v>
+        <v>0.002411503624628566</v>
       </c>
       <c r="T29">
-        <v>0.003760250026977542</v>
+        <v>0.002411503624628566</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2273,52 +2273,52 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30">
-        <v>5.12159796544446</v>
+        <v>5.159083666666667</v>
       </c>
       <c r="H30">
-        <v>5.12159796544446</v>
+        <v>15.477251</v>
       </c>
       <c r="I30">
-        <v>0.126842157132356</v>
+        <v>0.1059205572159035</v>
       </c>
       <c r="J30">
-        <v>0.126842157132356</v>
+        <v>0.1059205572159035</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30">
-        <v>3.32614568004099</v>
+        <v>3.355851333333334</v>
       </c>
       <c r="N30">
-        <v>3.32614568004099</v>
+        <v>10.067554</v>
       </c>
       <c r="O30">
-        <v>0.01802696044484009</v>
+        <v>0.01337935960738765</v>
       </c>
       <c r="P30">
-        <v>0.01802696044484009</v>
+        <v>0.01337935960738765</v>
       </c>
       <c r="Q30">
-        <v>17.03518094766982</v>
+        <v>17.31311780156156</v>
       </c>
       <c r="R30">
-        <v>17.03518094766982</v>
+        <v>155.818060214054</v>
       </c>
       <c r="S30">
-        <v>0.002286578549363173</v>
+        <v>0.001417149224806452</v>
       </c>
       <c r="T30">
-        <v>0.002286578549363173</v>
+        <v>0.001417149224806452</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2335,52 +2335,52 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F31">
         <v>1</v>
       </c>
       <c r="G31">
-        <v>5.12159796544446</v>
+        <v>5.159083666666667</v>
       </c>
       <c r="H31">
-        <v>5.12159796544446</v>
+        <v>15.477251</v>
       </c>
       <c r="I31">
-        <v>0.126842157132356</v>
+        <v>0.1059205572159035</v>
       </c>
       <c r="J31">
-        <v>0.126842157132356</v>
+        <v>0.1059205572159035</v>
       </c>
       <c r="K31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L31">
         <v>1</v>
       </c>
       <c r="M31">
-        <v>133.059811910809</v>
+        <v>196.6334516666667</v>
       </c>
       <c r="N31">
-        <v>133.059811910809</v>
+        <v>589.900355</v>
       </c>
       <c r="O31">
-        <v>0.7211542117675545</v>
+        <v>0.783952982230901</v>
       </c>
       <c r="P31">
-        <v>0.7211542117675545</v>
+        <v>0.7839529822309009</v>
       </c>
       <c r="Q31">
-        <v>681.4788619648219</v>
+        <v>1014.44842881379</v>
       </c>
       <c r="R31">
-        <v>681.4788619648219</v>
+        <v>9130.035859324104</v>
       </c>
       <c r="S31">
-        <v>0.09147275584568047</v>
+        <v>0.08303673670896632</v>
       </c>
       <c r="T31">
-        <v>0.09147275584568047</v>
+        <v>0.08303673670896633</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2397,52 +2397,52 @@
         <v>20</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F32">
         <v>1</v>
       </c>
       <c r="G32">
-        <v>10.8392211941781</v>
+        <v>12.604947</v>
       </c>
       <c r="H32">
-        <v>10.8392211941781</v>
+        <v>37.814841</v>
       </c>
       <c r="I32">
-        <v>0.2684455529661998</v>
+        <v>0.2587907264507627</v>
       </c>
       <c r="J32">
-        <v>0.2684455529661998</v>
+        <v>0.2587907264507627</v>
       </c>
       <c r="K32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L32">
         <v>1</v>
       </c>
       <c r="M32">
-        <v>9.23421792776205</v>
+        <v>11.27642966666667</v>
       </c>
       <c r="N32">
-        <v>9.23421792776205</v>
+        <v>33.829289</v>
       </c>
       <c r="O32">
-        <v>0.05004738136447116</v>
+        <v>0.04495771493187356</v>
       </c>
       <c r="P32">
-        <v>0.05004738136447116</v>
+        <v>0.04495771493187355</v>
       </c>
       <c r="Q32">
-        <v>100.0917306742578</v>
+        <v>142.138798297561</v>
       </c>
       <c r="R32">
-        <v>100.0917306742578</v>
+        <v>1279.249184678049</v>
       </c>
       <c r="S32">
-        <v>0.01343499696489574</v>
+        <v>0.01163463970678586</v>
       </c>
       <c r="T32">
-        <v>0.01343499696489574</v>
+        <v>0.01163463970678586</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2459,52 +2459,52 @@
         <v>21</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F33">
         <v>1</v>
       </c>
       <c r="G33">
-        <v>10.8392211941781</v>
+        <v>12.604947</v>
       </c>
       <c r="H33">
-        <v>10.8392211941781</v>
+        <v>37.814841</v>
       </c>
       <c r="I33">
-        <v>0.2684455529661998</v>
+        <v>0.2587907264507627</v>
       </c>
       <c r="J33">
-        <v>0.2684455529661998</v>
+        <v>0.2587907264507627</v>
       </c>
       <c r="K33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L33">
         <v>1</v>
       </c>
       <c r="M33">
-        <v>28.4054767037283</v>
+        <v>28.51725866666667</v>
       </c>
       <c r="N33">
-        <v>28.4054767037283</v>
+        <v>85.551776</v>
       </c>
       <c r="O33">
-        <v>0.1539512860268424</v>
+        <v>0.1136947441408982</v>
       </c>
       <c r="P33">
-        <v>0.1539512860268424</v>
+        <v>0.1136947441408982</v>
       </c>
       <c r="Q33">
-        <v>307.893245117784</v>
+        <v>359.458534078624</v>
       </c>
       <c r="R33">
-        <v>307.893245117784</v>
+        <v>3235.126806707616</v>
       </c>
       <c r="S33">
-        <v>0.0413275381073333</v>
+        <v>0.02942314542985664</v>
       </c>
       <c r="T33">
-        <v>0.0413275381073333</v>
+        <v>0.02942314542985665</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2521,52 +2521,52 @@
         <v>22</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F34">
         <v>1</v>
       </c>
       <c r="G34">
-        <v>10.8392211941781</v>
+        <v>12.604947</v>
       </c>
       <c r="H34">
-        <v>10.8392211941781</v>
+        <v>37.814841</v>
       </c>
       <c r="I34">
-        <v>0.2684455529661998</v>
+        <v>0.2587907264507627</v>
       </c>
       <c r="J34">
-        <v>0.2684455529661998</v>
+        <v>0.2587907264507627</v>
       </c>
       <c r="K34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L34">
         <v>1</v>
       </c>
       <c r="M34">
-        <v>5.0140548210841</v>
+        <v>5.329513</v>
       </c>
       <c r="N34">
-        <v>5.0140548210841</v>
+        <v>15.988539</v>
       </c>
       <c r="O34">
-        <v>0.02717504782497348</v>
+        <v>0.02124810186046602</v>
       </c>
       <c r="P34">
-        <v>0.02717504782497348</v>
+        <v>0.02124810186046602</v>
       </c>
       <c r="Q34">
-        <v>54.34844928546566</v>
+        <v>67.17822890081099</v>
       </c>
       <c r="R34">
-        <v>54.34844928546566</v>
+        <v>604.604060107299</v>
       </c>
       <c r="S34">
-        <v>0.00729502074025793</v>
+        <v>0.005498811716169804</v>
       </c>
       <c r="T34">
-        <v>0.00729502074025793</v>
+        <v>0.005498811716169805</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2583,52 +2583,52 @@
         <v>23</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F35">
         <v>1</v>
       </c>
       <c r="G35">
-        <v>10.8392211941781</v>
+        <v>12.604947</v>
       </c>
       <c r="H35">
-        <v>10.8392211941781</v>
+        <v>37.814841</v>
       </c>
       <c r="I35">
-        <v>0.2684455529661998</v>
+        <v>0.2587907264507627</v>
       </c>
       <c r="J35">
-        <v>0.2684455529661998</v>
+        <v>0.2587907264507627</v>
       </c>
       <c r="K35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L35">
         <v>1</v>
       </c>
       <c r="M35">
-        <v>5.46980526279698</v>
+        <v>5.710511999999999</v>
       </c>
       <c r="N35">
-        <v>5.46980526279698</v>
+        <v>17.131536</v>
       </c>
       <c r="O35">
-        <v>0.02964511257131833</v>
+        <v>0.02276709722847351</v>
       </c>
       <c r="P35">
-        <v>0.02964511257131833</v>
+        <v>0.02276709722847351</v>
       </c>
       <c r="Q35">
-        <v>59.28842913253593</v>
+        <v>71.98070110286399</v>
       </c>
       <c r="R35">
-        <v>59.28842913253593</v>
+        <v>647.8263099257759</v>
       </c>
       <c r="S35">
-        <v>0.007958098636952791</v>
+        <v>0.005891913630931805</v>
       </c>
       <c r="T35">
-        <v>0.007958098636952791</v>
+        <v>0.005891913630931805</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2645,52 +2645,52 @@
         <v>24</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F36">
         <v>1</v>
       </c>
       <c r="G36">
-        <v>10.8392211941781</v>
+        <v>12.604947</v>
       </c>
       <c r="H36">
-        <v>10.8392211941781</v>
+        <v>37.814841</v>
       </c>
       <c r="I36">
-        <v>0.2684455529661998</v>
+        <v>0.2587907264507627</v>
       </c>
       <c r="J36">
-        <v>0.2684455529661998</v>
+        <v>0.2587907264507627</v>
       </c>
       <c r="K36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L36">
         <v>1</v>
       </c>
       <c r="M36">
-        <v>3.32614568004099</v>
+        <v>3.355851333333334</v>
       </c>
       <c r="N36">
-        <v>3.32614568004099</v>
+        <v>10.067554</v>
       </c>
       <c r="O36">
-        <v>0.01802696044484009</v>
+        <v>0.01337935960738765</v>
       </c>
       <c r="P36">
-        <v>0.01802696044484009</v>
+        <v>0.01337935960738765</v>
       </c>
       <c r="Q36">
-        <v>36.05282875002423</v>
+        <v>42.30032819654601</v>
       </c>
       <c r="R36">
-        <v>36.05282875002423</v>
+        <v>380.7029537689141</v>
       </c>
       <c r="S36">
-        <v>0.00483925736491491</v>
+        <v>0.003462454192241842</v>
       </c>
       <c r="T36">
-        <v>0.00483925736491491</v>
+        <v>0.003462454192241842</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2707,52 +2707,52 @@
         <v>25</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F37">
         <v>1</v>
       </c>
       <c r="G37">
-        <v>10.8392211941781</v>
+        <v>12.604947</v>
       </c>
       <c r="H37">
-        <v>10.8392211941781</v>
+        <v>37.814841</v>
       </c>
       <c r="I37">
-        <v>0.2684455529661998</v>
+        <v>0.2587907264507627</v>
       </c>
       <c r="J37">
-        <v>0.2684455529661998</v>
+        <v>0.2587907264507627</v>
       </c>
       <c r="K37">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L37">
         <v>1</v>
       </c>
       <c r="M37">
-        <v>133.059811910809</v>
+        <v>196.6334516666667</v>
       </c>
       <c r="N37">
-        <v>133.059811910809</v>
+        <v>589.900355</v>
       </c>
       <c r="O37">
-        <v>0.7211542117675545</v>
+        <v>0.783952982230901</v>
       </c>
       <c r="P37">
-        <v>0.7211542117675545</v>
+        <v>0.7839529822309009</v>
       </c>
       <c r="Q37">
-        <v>1442.264733356993</v>
+        <v>2478.554236685395</v>
       </c>
       <c r="R37">
-        <v>1442.264733356993</v>
+        <v>22306.98813016856</v>
       </c>
       <c r="S37">
-        <v>0.1935906411518451</v>
+        <v>0.2028797617747767</v>
       </c>
       <c r="T37">
-        <v>0.1935906411518451</v>
+        <v>0.2028797617747767</v>
       </c>
     </row>
   </sheetData>
